--- a/Files/Excel/Chery.xlsx
+++ b/Files/Excel/Chery.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vitor\OneDrive\Área de Trabalho\autoSINP\Files\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josef\Desktop\AfterLifeDeath\SINP\autoSINP\Files\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49F98265-5DCF-4E63-BC81-D40D3F893467}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{098C55A6-6583-432E-9D84-31EDE3E2E968}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,75 +20,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="21">
   <si>
     <t>serie</t>
   </si>
   <si>
-    <t>Arrizo 5</t>
-  </si>
-  <si>
-    <t>Chery Arrizo 5 Plus</t>
-  </si>
-  <si>
-    <t>Chery Celer</t>
-  </si>
-  <si>
-    <t>Chery Cielo</t>
-  </si>
-  <si>
-    <t>Chery Face</t>
-  </si>
-  <si>
-    <t>Chery iCar</t>
-  </si>
-  <si>
-    <t>Chery J3</t>
-  </si>
-  <si>
-    <t>Chery M11</t>
-  </si>
-  <si>
-    <t>Chery Orinoco</t>
-  </si>
-  <si>
-    <t>Chery QQ</t>
-  </si>
-  <si>
-    <t>Chery S-18</t>
-  </si>
-  <si>
-    <t>Chery Skin/Skin Sport</t>
-  </si>
-  <si>
-    <t>Chery Tengo</t>
-  </si>
-  <si>
     <t>Chery Tiggo</t>
   </si>
   <si>
-    <t>Chery Tiggo 2</t>
-  </si>
-  <si>
-    <t>Chery Tiggo 3x</t>
-  </si>
-  <si>
-    <t>Chery Tiggo 4</t>
-  </si>
-  <si>
-    <t>Chery Tiggo 5x</t>
-  </si>
-  <si>
-    <t>Chery Tiggo 7</t>
-  </si>
-  <si>
-    <t>Chery Tiggo 8</t>
-  </si>
-  <si>
-    <t>Chery Tiggo 9</t>
-  </si>
-  <si>
     <t>marca</t>
+  </si>
+  <si>
+    <t>modelo</t>
+  </si>
+  <si>
+    <t>Arrizo</t>
+  </si>
+  <si>
+    <t>Arrizo Plus</t>
+  </si>
+  <si>
+    <t>Celer</t>
+  </si>
+  <si>
+    <t>Cielo</t>
+  </si>
+  <si>
+    <t>Face</t>
+  </si>
+  <si>
+    <t>iCar</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Orinoco</t>
+  </si>
+  <si>
+    <t>QQ</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>Skin Sport</t>
+  </si>
+  <si>
+    <t>Tengo</t>
+  </si>
+  <si>
+    <t>Tiggo</t>
+  </si>
+  <si>
+    <t>Tiggo x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chery Tiggo </t>
+  </si>
+  <si>
+    <t>Chery</t>
   </si>
 </sst>
 </file>
@@ -451,191 +445,257 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="A2" sqref="A2:A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="B2">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="B3">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="B8">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B9">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B12">
         <v>18</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B16">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B18">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B20">
         <v>7</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>20</v>
       </c>
       <c r="B21">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
         <v>9</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
